--- a/dataset/哈利波特/output/角色统计/哈利波特与魔法石 第9章 角色统计.xlsx
+++ b/dataset/哈利波特/output/角色统计/哈利波特与魔法石 第9章 角色统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>角色</t>
   </si>
@@ -55,10 +55,13 @@
     <t>费尔奇</t>
   </si>
   <si>
+    <t>海德薇</t>
+  </si>
+  <si>
     <t>韦斯莱</t>
   </si>
   <si>
-    <t>海德薇</t>
+    <t>德拉科</t>
   </si>
   <si>
     <t>高尔</t>
@@ -70,22 +73,22 @@
     <t>奇洛</t>
   </si>
   <si>
-    <t>德拉科</t>
+    <t>皮皮鬼</t>
   </si>
   <si>
     <t>格兰杰</t>
   </si>
   <si>
-    <t>皮皮鬼</t>
+    <t>宾斯</t>
   </si>
   <si>
     <t>差点没头的尼克</t>
   </si>
   <si>
+    <t>斯普劳特</t>
+  </si>
+  <si>
     <t>德思礼</t>
-  </si>
-  <si>
-    <t>斯普劳特</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -470,7 +473,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -492,7 +495,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -503,7 +506,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -514,7 +517,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -525,7 +528,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -536,7 +539,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -547,7 +550,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -558,7 +561,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -580,7 +583,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -591,7 +594,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -624,7 +627,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -635,7 +638,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -646,7 +649,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -657,7 +660,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -668,7 +671,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -679,7 +682,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -696,6 +699,17 @@
         <v>23</v>
       </c>
       <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
         <v>1</v>
       </c>
     </row>
